--- a/papers/terasort/data/Data_MR_Terasort_sec.xlsx
+++ b/papers/terasort/data/Data_MR_Terasort_sec.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="17560" tabRatio="113"/>
   </bookViews>
   <sheets>
     <sheet name="Cyder" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Varying input Datasize</t>
   </si>
@@ -87,9 +84,6 @@
     <t>Prepare input files for reducers</t>
   </si>
   <si>
-    <t>Varying Num of reduces</t>
-  </si>
-  <si>
     <t>Constant Input Data size(4GB),Number of workers=8, Chunk Size=256</t>
   </si>
   <si>
@@ -103,6 +97,9 @@
   </si>
   <si>
     <t>Num Of workers</t>
+  </si>
+  <si>
+    <t>Constant Input Data size(8GB),Number of workers=8, Number of Reduces=8</t>
   </si>
 </sst>
 </file>
@@ -301,12 +298,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -411,7 +416,7 @@
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="61">
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -437,6 +442,10 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
@@ -464,6 +473,10 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,7 +509,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time Vs Input Data</a:t>
+              <a:t>Time in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> each phase </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vs Input Data</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -515,7 +536,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24117782152231"/>
+          <c:y val="0.00833333333333333"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1011,11 +1039,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="525783448"/>
-        <c:axId val="633355960"/>
+        <c:axId val="474116520"/>
+        <c:axId val="476791608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="525783448"/>
+        <c:axId val="474116520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="633355960"/>
+        <c:crossAx val="476791608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1052,13 +1080,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="633355960"/>
+        <c:axId val="476791608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1074,7 +1101,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Minutes</a:t>
+                  <a:t> Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1086,7 +1113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525783448"/>
+        <c:crossAx val="474116520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1164,11 +1191,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>TIme</a:t>
+              <a:t>Time</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Vs Chunk Size</a:t>
+              <a:t> in each phase Vs Chunk Size</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1225,10 +1252,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1248,17 +1275,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$C$35:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$C$35:$C$40,Cyder!$C$51:$C$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1278,7 +1317,13 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0166666666666667</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,10 +1338,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1316,17 +1361,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$D$35:$D$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$D$35:$D$40,Cyder!$D$51:$D$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>64.98</c:v>
                 </c:pt>
@@ -1344,6 +1401,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,10 +1427,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1381,17 +1450,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$E$35:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$E$35:$E$40,Cyder!$E$51:$E$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1411,7 +1492,16 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0166666666666667</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,10 +1516,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1449,17 +1539,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$F$35:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$F$35:$F$40,Cyder!$F$51:$F$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>988.2</c:v>
                 </c:pt>
@@ -1477,6 +1579,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>303.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,10 +1605,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1514,17 +1628,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$G$35:$G$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$G$35:$G$40,Cyder!$G$51:$G$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>24.0</c:v>
                 </c:pt>
@@ -1542,6 +1668,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,10 +1694,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1579,17 +1717,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$H$35:$H$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$H$35:$H$40,Cyder!$H$51:$H$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>720.0</c:v>
                 </c:pt>
@@ -1607,6 +1757,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1421.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1405.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,10 +1780,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$35:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1644,17 +1803,29 @@
                   <c:v>512.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$I$35:$I$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+              <c:f>(Cyder!$I$35:$I$40,Cyder!$I$51:$I$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
@@ -1674,7 +1845,16 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0333333333333333</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,11 +1870,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="520787656"/>
-        <c:axId val="520684984"/>
+        <c:axId val="754003720"/>
+        <c:axId val="538449864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520787656"/>
+        <c:axId val="754003720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520684984"/>
+        <c:crossAx val="538449864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1735,13 +1915,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520684984"/>
+        <c:axId val="538449864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1757,7 +1936,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in Minutes</a:t>
+                  <a:t> in Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1769,14 +1948,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520787656"/>
+        <c:crossAx val="754003720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.782321093791847"/>
+          <c:y val="0.390223427953859"/>
+          <c:w val="0.204073464031282"/>
+          <c:h val="0.393782615408368"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1836,8 +2024,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time VS Num of Reduces</a:t>
+              <a:t> VS Num of Reduces</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1904,7 +2098,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.220829751353545"/>
+          <c:y val="0.0289093298291721"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1914,10 +2115,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.123990012375018"/>
-          <c:y val="0.0964465560140483"/>
-          <c:w val="0.667226681852529"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="0.169371980676328"/>
+          <c:y val="0.185857398574193"/>
+          <c:w val="0.630189686434123"/>
+          <c:h val="0.727857046778482"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1933,7 +2134,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1957,7 +2158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$C$55:$C$59</c:f>
+              <c:f>Cyder!$C$62:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1989,7 +2190,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2013,7 +2214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$D$55:$D$59</c:f>
+              <c:f>Cyder!$D$62:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2045,7 +2246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2069,7 +2270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$E$55:$E$59</c:f>
+              <c:f>Cyder!$E$62:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2101,7 +2302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2125,7 +2326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$F$55:$F$59</c:f>
+              <c:f>Cyder!$F$62:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2157,7 +2358,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2181,7 +2382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$G$55:$G$59</c:f>
+              <c:f>Cyder!$G$62:$G$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2213,7 +2414,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2237,7 +2438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$H$55:$H$59</c:f>
+              <c:f>Cyder!$H$62:$H$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2269,7 +2470,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2293,7 +2494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$I$55:$I$59</c:f>
+              <c:f>Cyder!$I$62:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2326,21 +2527,45 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="519283160"/>
-        <c:axId val="526207544"/>
+        <c:axId val="597772056"/>
+        <c:axId val="520116264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="519283160"/>
+        <c:axId val="597772056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of reduces</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526207544"/>
+        <c:crossAx val="520116264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2348,13 +2573,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526207544"/>
+        <c:axId val="520116264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2366,7 +2590,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time in Minutes</a:t>
+                  <a:t>Time in Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2378,14 +2602,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519283160"/>
+        <c:crossAx val="597772056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.814244449912511"/>
+          <c:y val="0.410027121609799"/>
+          <c:w val="0.1718666611986"/>
+          <c:h val="0.390501093613298"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2445,8 +2678,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time Vs Num of Workers</a:t>
+              <a:t>Vs Num of Workers</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2538,7 +2777,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2556,7 +2795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$C$80:$C$82</c:f>
+              <c:f>Cyder!$C$87:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2582,7 +2821,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2600,7 +2839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$D$80:$D$82</c:f>
+              <c:f>Cyder!$D$87:$D$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2626,7 +2865,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2644,7 +2883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$E$80:$E$82</c:f>
+              <c:f>Cyder!$E$87:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2670,7 +2909,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2688,7 +2927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$F$80:$F$82</c:f>
+              <c:f>Cyder!$F$87:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2714,7 +2953,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2732,7 +2971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$G$80:$G$82</c:f>
+              <c:f>Cyder!$G$87:$G$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2758,7 +2997,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2776,7 +3015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$H$80:$H$82</c:f>
+              <c:f>Cyder!$H$87:$H$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2802,7 +3041,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2820,7 +3059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cyder!$I$80:$I$82</c:f>
+              <c:f>Cyder!$I$87:$I$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2847,21 +3086,45 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="472751656"/>
-        <c:axId val="472235832"/>
+        <c:axId val="598252456"/>
+        <c:axId val="476428664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="472751656"/>
+        <c:axId val="598252456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of workers</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472235832"/>
+        <c:crossAx val="476428664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2869,13 +3132,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472235832"/>
+        <c:axId val="476428664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2887,7 +3149,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time in Minutes</a:t>
+                  <a:t>Time in Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2899,7 +3161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472751656"/>
+        <c:crossAx val="598252456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2986,9 +3248,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0594147129913845"/>
+          <c:x val="0.221373281729614"/>
           <c:y val="0.336507936507936"/>
-          <c:w val="0.767804469356585"/>
+          <c:w val="0.669996880106968"/>
           <c:h val="0.547037245344332"/>
         </c:manualLayout>
       </c:layout>
@@ -3000,7 +3262,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Cyder!$A$80:$A$82</c:f>
+              <c:f>Cyder!$A$87:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3018,7 +3280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cyder!$B$80:$B$82</c:f>
+              <c:f>Cyder!$B$87:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3044,46 +3306,88 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="631107768"/>
-        <c:axId val="631106344"/>
+        <c:axId val="754642168"/>
+        <c:axId val="553330552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631107768"/>
+        <c:axId val="754642168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of workers</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631106344"/>
+        <c:crossAx val="553330552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="631106344"/>
+        <c:axId val="553330552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631107768"/>
+        <c:crossAx val="754642168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3123,7 +3427,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Time VS Num of Reduces</a:t>
+              <a:t>Time to solution VS Num of Reduces</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -3165,7 +3469,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Cyder!$A$55:$A$59</c:f>
+              <c:f>Cyder!$A$62:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3189,7 +3493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cyder!$B$55:$B$59</c:f>
+              <c:f>Cyder!$B$62:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3221,46 +3525,83 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="736833752"/>
-        <c:axId val="737070088"/>
+        <c:axId val="83637336"/>
+        <c:axId val="83646504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="736833752"/>
+        <c:axId val="83637336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of reduces</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="737070088"/>
+        <c:crossAx val="83646504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="737070088"/>
+        <c:axId val="83646504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="736833752"/>
+        <c:crossAx val="83637336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3300,7 +3641,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>TIme Vs Chunk Size</a:t>
+              <a:t>TIme to solution Vs Chunk Size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -3332,10 +3673,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101525590551181"/>
-          <c:y val="0.0740740740740741"/>
-          <c:w val="0.649935258092738"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="0.217845113110861"/>
+          <c:y val="0.242550962379702"/>
+          <c:w val="0.634310203412074"/>
+          <c:h val="0.659548128815359"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3344,6 +3685,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Input Size 4GB</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>Cyder!$A$35:$A$40</c:f>
@@ -3394,6 +3738,50 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>877.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Input Size 8GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cyder!$A$51:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cyder!$B$51:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2633.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1797.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,37 +3796,84 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="734801736"/>
-        <c:axId val="734115736"/>
+        <c:axId val="83674456"/>
+        <c:axId val="83680216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="734801736"/>
+        <c:axId val="83674456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="734115736"/>
+        <c:crossAx val="83680216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="64.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="734115736"/>
+        <c:axId val="83680216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="734801736"/>
+        <c:crossAx val="83674456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3487,7 +3922,7 @@
               <a:rPr lang="de-DE" sz="1800" b="1" i="1" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Time Vs Input Data Size</a:t>
+              <a:t>Time to solution Vs Input Data Size</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE">
               <a:effectLst/>
@@ -3506,7 +3941,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.195246025281323"/>
+          <c:y val="0.0392156862745098"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3518,6 +3960,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>8 workers</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>Cyder!$A$5:$A$11</c:f>
@@ -3588,46 +4033,88 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="634141576"/>
-        <c:axId val="734819448"/>
+        <c:axId val="597735240"/>
+        <c:axId val="476780504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="634141576"/>
+        <c:axId val="597735240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="734819448"/>
+        <c:crossAx val="476780504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="734819448"/>
+        <c:axId val="476780504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634141576"/>
+        <c:crossAx val="597735240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3645,15 +4132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:rowOff>355600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3676,16 +4163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3708,16 +4195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3741,15 +4228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1320800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3774,14 +4261,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3802,16 +4289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3832,16 +4319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3862,16 +4349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3891,592 +4378,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Cyder"/>
-      <sheetName val="FG-New_version"/>
-      <sheetName val="Sierra-FG"/>
-      <sheetName val="India-FG"/>
-      <sheetName val="old data"/>
-      <sheetName val="Sierra_OLD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="A5">
-            <v>128</v>
-          </cell>
-          <cell r="C5">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="E5">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>0.6</v>
-          </cell>
-          <cell r="G5">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="H5">
-            <v>1.367</v>
-          </cell>
-          <cell r="I5">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>256</v>
-          </cell>
-          <cell r="C6">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="E6">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-          <cell r="G6">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="H6">
-            <v>1.7330000000000001</v>
-          </cell>
-          <cell r="I6">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>512</v>
-          </cell>
-          <cell r="C7">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F7">
-            <v>1.083</v>
-          </cell>
-          <cell r="G7">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="H7">
-            <v>2.5</v>
-          </cell>
-          <cell r="I7">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1024</v>
-          </cell>
-          <cell r="C8">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F8">
-            <v>1.35</v>
-          </cell>
-          <cell r="G8">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="H8">
-            <v>3.5329999999999999</v>
-          </cell>
-          <cell r="I8">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2048</v>
-          </cell>
-          <cell r="C9">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F9">
-            <v>1.5329999999999999</v>
-          </cell>
-          <cell r="G9">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>6.3</v>
-          </cell>
-          <cell r="I9">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>4096</v>
-          </cell>
-          <cell r="C10">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>0.05</v>
-          </cell>
-          <cell r="E10">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F10">
-            <v>2.65</v>
-          </cell>
-          <cell r="G10">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>11.38</v>
-          </cell>
-          <cell r="I10">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>8192</v>
-          </cell>
-          <cell r="C11">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D11">
-            <v>0.15</v>
-          </cell>
-          <cell r="E11">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>7.4829999999999997</v>
-          </cell>
-          <cell r="G11">
-            <v>0.05</v>
-          </cell>
-          <cell r="H11">
-            <v>24.5</v>
-          </cell>
-          <cell r="I11">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>16</v>
-          </cell>
-          <cell r="C35">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>1.083</v>
-          </cell>
-          <cell r="E35">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>16.47</v>
-          </cell>
-          <cell r="G35">
-            <v>0.4</v>
-          </cell>
-          <cell r="H35">
-            <v>12</v>
-          </cell>
-          <cell r="I35">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>32</v>
-          </cell>
-          <cell r="C36">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>0.53</v>
-          </cell>
-          <cell r="E36">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>8.8330000000000002</v>
-          </cell>
-          <cell r="G36">
-            <v>0.2</v>
-          </cell>
-          <cell r="H36">
-            <v>11.95</v>
-          </cell>
-          <cell r="I36">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>64</v>
-          </cell>
-          <cell r="C37">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>0.25</v>
-          </cell>
-          <cell r="E37">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F37">
-            <v>4.6500000000000004</v>
-          </cell>
-          <cell r="G37">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="H37">
-            <v>11.85</v>
-          </cell>
-          <cell r="I37">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>128</v>
-          </cell>
-          <cell r="C38">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D38">
-            <v>0.13333333333333333</v>
-          </cell>
-          <cell r="E38">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F38">
-            <v>2.93</v>
-          </cell>
-          <cell r="G38">
-            <v>0.3</v>
-          </cell>
-          <cell r="H38">
-            <v>11.75</v>
-          </cell>
-          <cell r="I38">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>256</v>
-          </cell>
-          <cell r="C39">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D39">
-            <v>0.05</v>
-          </cell>
-          <cell r="E39">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F39">
-            <v>2.65</v>
-          </cell>
-          <cell r="G39">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H39">
-            <v>11.38</v>
-          </cell>
-          <cell r="I39">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>512</v>
-          </cell>
-          <cell r="C40">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D40">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F40">
-            <v>2.35</v>
-          </cell>
-          <cell r="G40">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="H40">
-            <v>12.1</v>
-          </cell>
-          <cell r="I40">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>1024</v>
-          </cell>
-          <cell r="C41">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="I41">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>2</v>
-          </cell>
-          <cell r="C55">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D55">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="E55">
-            <v>0.05</v>
-          </cell>
-          <cell r="F55">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="G55">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="H55">
-            <v>41.17</v>
-          </cell>
-          <cell r="I55">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>4</v>
-          </cell>
-          <cell r="C56">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D56">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="E56">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F56">
-            <v>2.5830000000000002</v>
-          </cell>
-          <cell r="G56">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H56">
-            <v>21.42</v>
-          </cell>
-          <cell r="I56">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>8</v>
-          </cell>
-          <cell r="C57">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D57">
-            <v>0.05</v>
-          </cell>
-          <cell r="E57">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F57">
-            <v>2.65</v>
-          </cell>
-          <cell r="G57">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H57">
-            <v>11.38</v>
-          </cell>
-          <cell r="I57">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>16</v>
-          </cell>
-          <cell r="C58">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D58">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="E58">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="F58">
-            <v>2.633</v>
-          </cell>
-          <cell r="G58">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H58">
-            <v>13.17</v>
-          </cell>
-          <cell r="I58">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>32</v>
-          </cell>
-          <cell r="C59">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D59">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="E59">
-            <v>0.05</v>
-          </cell>
-          <cell r="F59">
-            <v>2.95</v>
-          </cell>
-          <cell r="G59">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H59">
-            <v>13.67</v>
-          </cell>
-          <cell r="I59">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>4</v>
-          </cell>
-          <cell r="C80">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D80">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="E80">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F80">
-            <v>3.883</v>
-          </cell>
-          <cell r="G80">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H80">
-            <v>21.27</v>
-          </cell>
-          <cell r="I80">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>8</v>
-          </cell>
-          <cell r="C81">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="D81">
-            <v>0.05</v>
-          </cell>
-          <cell r="E81">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="F81">
-            <v>2.65</v>
-          </cell>
-          <cell r="G81">
-            <v>1.6666666666666666E-2</v>
-          </cell>
-          <cell r="H81">
-            <v>11.38</v>
-          </cell>
-          <cell r="I81">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>16</v>
-          </cell>
-          <cell r="C82">
-            <v>8.3333333333333332E-3</v>
-          </cell>
-          <cell r="D82">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="E82">
-            <v>6.6666666666666666E-2</v>
-          </cell>
-          <cell r="F82">
-            <v>2.15</v>
-          </cell>
-          <cell r="G82">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-          <cell r="H82">
-            <v>11.78</v>
-          </cell>
-          <cell r="I82">
-            <v>3.3333333333333333E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4801,15 +4702,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA82" sqref="AA82:AB92"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49" thickBot="1">
+    <row r="1" spans="1:9" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5094,7 +4999,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="106" thickTop="1">
+    <row r="33" spans="1:9" ht="61" thickTop="1">
       <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
@@ -5138,14 +5043,14 @@
         <v>1848</v>
       </c>
       <c r="C35">
-        <f>60*(1/60)</f>
+        <f t="shared" ref="C35:C40" si="0">60*(1/60)</f>
         <v>1</v>
       </c>
       <c r="D35">
         <v>64.98</v>
       </c>
       <c r="E35">
-        <f>60*(1/60)</f>
+        <f t="shared" ref="E35:E40" si="1">60*(1/60)</f>
         <v>1</v>
       </c>
       <c r="F35">
@@ -5158,7 +5063,7 @@
         <v>720</v>
       </c>
       <c r="I35">
-        <f>60*(2/60)</f>
+        <f t="shared" ref="I35:I40" si="2">60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
@@ -5170,14 +5075,14 @@
         <v>1282.2</v>
       </c>
       <c r="C36">
-        <f>60*(1/60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D36">
         <v>31.8</v>
       </c>
       <c r="E36">
-        <f>60*(1/60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F36">
@@ -5191,7 +5096,7 @@
         <v>717</v>
       </c>
       <c r="I36">
-        <f>60*(2/60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5203,14 +5108,14 @@
         <v>1018.8000000000001</v>
       </c>
       <c r="C37">
-        <f>60*(1/60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
       <c r="E37">
-        <f>60*(1/60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F37">
@@ -5224,7 +5129,7 @@
         <v>711</v>
       </c>
       <c r="I37">
-        <f>60*(2/60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5236,7 +5141,7 @@
         <v>904.2</v>
       </c>
       <c r="C38">
-        <f>60*(1/60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D38">
@@ -5244,7 +5149,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <f>60*(1/60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F38">
@@ -5258,7 +5163,7 @@
         <v>705</v>
       </c>
       <c r="I38">
-        <f>60*(2/60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5270,7 +5175,7 @@
         <v>853.2</v>
       </c>
       <c r="C39">
-        <f>60*(1/60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D39">
@@ -5278,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <f>60*(1/60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F39">
@@ -5292,7 +5197,7 @@
         <v>682.80000000000007</v>
       </c>
       <c r="I39">
-        <f>60*(2/60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5304,7 +5209,7 @@
         <v>877.19999999999993</v>
       </c>
       <c r="C40">
-        <f>60*(1/60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D40">
@@ -5312,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <f>60*(1/60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F40" s="14">
@@ -5326,7 +5231,7 @@
         <v>726</v>
       </c>
       <c r="I40">
-        <f>60*(2/60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5335,422 +5240,587 @@
         <v>1024</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C35:C41" si="0">1/60</f>
+        <f t="shared" ref="C41" si="3">1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E35:E41" si="1">1/60</f>
+        <f t="shared" ref="E41" si="4">1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I35:I41" si="2">2/60</f>
+        <f t="shared" ref="I41" si="5">2/60</f>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="F50" s="14"/>
+    <row r="48" spans="1:9" ht="20" thickBot="1">
+      <c r="A48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="20" thickBot="1">
-      <c r="A52" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+    <row r="49" spans="1:9" ht="61" thickTop="1">
+      <c r="A49" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="106" thickTop="1">
-      <c r="A53" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+    <row r="50" spans="1:9" ht="71" thickBot="1">
+      <c r="A50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" ht="71" thickBot="1">
-      <c r="A54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>13</v>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>2633</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>81</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1096</v>
+      </c>
+      <c r="G51">
+        <v>29</v>
+      </c>
+      <c r="H51">
+        <v>1417</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>2033</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>578</v>
+      </c>
+      <c r="G52">
+        <v>14</v>
+      </c>
+      <c r="H52">
+        <v>1421</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>128</v>
+      </c>
+      <c r="B53">
+        <v>1797</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="14">
+        <v>352</v>
+      </c>
+      <c r="G53" s="14">
+        <v>8</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1405</v>
+      </c>
+      <c r="I53" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>256</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="14">
+        <v>303</v>
+      </c>
+      <c r="G54" s="14">
+        <v>4</v>
+      </c>
+      <c r="I54" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
+        <v>512</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" ht="60">
+      <c r="A60" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:9" ht="71" thickBot="1">
+      <c r="A61" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
         <v>2</v>
       </c>
-      <c r="B55">
+      <c r="B62">
         <v>2596.2000000000003</v>
       </c>
-      <c r="C55">
+      <c r="C62">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D62">
         <f>60*(4/60)</f>
         <v>4</v>
       </c>
-      <c r="E55">
+      <c r="E62">
         <f>60*(3/60)</f>
         <v>3</v>
       </c>
-      <c r="F55">
+      <c r="F62">
         <v>138</v>
       </c>
-      <c r="G55">
+      <c r="G62">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
-      <c r="H55">
+      <c r="H62">
         <v>2470.2000000000003</v>
       </c>
-      <c r="I55">
+      <c r="I62">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
+    <row r="63" spans="1:9">
+      <c r="A63">
         <v>4</v>
       </c>
-      <c r="B56">
+      <c r="B63">
         <v>1453.8</v>
       </c>
-      <c r="C56">
+      <c r="C63">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="D63">
         <f>60*(4/60)</f>
         <v>4</v>
       </c>
-      <c r="E56">
+      <c r="E63">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
-      <c r="F56">
+      <c r="F63">
         <v>154.98000000000002</v>
       </c>
-      <c r="G56">
+      <c r="G63">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="H56">
+      <c r="H63">
         <v>1285.2</v>
       </c>
-      <c r="I56">
+      <c r="I63">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
+    <row r="64" spans="1:9">
+      <c r="A64">
         <v>8</v>
       </c>
-      <c r="B57">
+      <c r="B64">
         <v>853.2</v>
       </c>
-      <c r="C57">
+      <c r="C64">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D57">
+      <c r="D64">
         <f>60*(3/60)</f>
         <v>3</v>
       </c>
-      <c r="E57">
+      <c r="E64">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="F57">
+      <c r="F64">
         <v>159</v>
       </c>
-      <c r="G57">
+      <c r="G64">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="H57">
+      <c r="H64">
         <v>682.80000000000007</v>
       </c>
-      <c r="I57">
+      <c r="I64">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
+    <row r="65" spans="1:9">
+      <c r="A65">
         <v>16</v>
       </c>
-      <c r="B58">
+      <c r="B65">
         <v>961.19999999999993</v>
       </c>
-      <c r="C58">
+      <c r="C65">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="D65">
         <f>60*(4/60)</f>
         <v>4</v>
       </c>
-      <c r="E58">
+      <c r="E65">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
-      <c r="F58">
+      <c r="F65">
         <v>157.97999999999999</v>
       </c>
-      <c r="G58">
+      <c r="G65">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="H58">
+      <c r="H65">
         <v>790.2</v>
       </c>
-      <c r="I58">
+      <c r="I65">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
+    <row r="66" spans="1:9">
+      <c r="A66">
         <v>32</v>
       </c>
-      <c r="B59">
+      <c r="B66">
         <v>1012.8</v>
       </c>
-      <c r="C59">
+      <c r="C66">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D66">
         <f>60*(4/60)</f>
         <v>4</v>
       </c>
-      <c r="E59">
+      <c r="E66">
         <f>60*(3/60)</f>
         <v>3</v>
       </c>
-      <c r="F59">
+      <c r="F66">
         <v>177</v>
       </c>
-      <c r="G59">
+      <c r="G66">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="H59">
+      <c r="H66">
         <v>820.2</v>
       </c>
-      <c r="I59">
+      <c r="I66">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
+    <row r="67" spans="1:9">
+      <c r="A67">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20" thickBot="1">
-      <c r="A77" s="15" t="s">
+    <row r="84" spans="1:9" ht="20" thickBot="1">
+      <c r="A84" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:9" ht="61" thickTop="1">
+      <c r="A85" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
     </row>
-    <row r="78" spans="1:9" ht="106" thickTop="1">
-      <c r="A78" s="17" t="s">
+    <row r="86" spans="1:9" ht="71" thickBot="1">
+      <c r="A86" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+      <c r="B86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" ht="71" thickBot="1">
-      <c r="A79" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80">
+    <row r="87" spans="1:9">
+      <c r="A87">
         <v>4</v>
       </c>
-      <c r="B80">
+      <c r="B87">
         <v>1522.2</v>
       </c>
-      <c r="C80">
+      <c r="C87">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="D87">
         <f>60*(5/60)</f>
         <v>5</v>
       </c>
-      <c r="E80">
+      <c r="E87">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="F80">
+      <c r="F87">
         <v>232.98</v>
       </c>
-      <c r="G80">
+      <c r="G87">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="H80">
+      <c r="H87">
         <v>1276.2</v>
       </c>
-      <c r="I80">
+      <c r="I87">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81">
+    <row r="88" spans="1:9">
+      <c r="A88">
         <v>8</v>
       </c>
-      <c r="B81">
+      <c r="B88">
         <v>853.2</v>
       </c>
-      <c r="C81">
+      <c r="C88">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="D81">
+      <c r="D88">
         <f>60*(3/60)</f>
         <v>3</v>
       </c>
-      <c r="E81">
+      <c r="E88">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="F81">
+      <c r="F88">
         <v>159</v>
       </c>
-      <c r="G81">
+      <c r="G88">
         <f>60*(1/60)</f>
         <v>1</v>
       </c>
-      <c r="H81">
+      <c r="H88">
         <v>682.80000000000007</v>
       </c>
-      <c r="I81">
+      <c r="I88">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82">
+    <row r="89" spans="1:9">
+      <c r="A89">
         <v>16</v>
       </c>
-      <c r="B82">
+      <c r="B89">
         <v>853.2</v>
       </c>
-      <c r="C82">
+      <c r="C89">
         <f>60*(0.5/60)</f>
         <v>0.5</v>
       </c>
-      <c r="D82">
+      <c r="D89">
         <f>60*(4/60)</f>
         <v>4</v>
       </c>
-      <c r="E82">
+      <c r="E89">
         <f>60*(4/60)</f>
         <v>4</v>
       </c>
-      <c r="F82">
+      <c r="F89">
         <v>129</v>
       </c>
-      <c r="G82">
+      <c r="G89">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
-      <c r="H82">
+      <c r="H89">
         <v>706.8</v>
       </c>
-      <c r="I82">
+      <c r="I89">
         <f>60*(2/60)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83">
+    <row r="90" spans="1:9">
+      <c r="A90">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+    <row r="96" spans="1:9">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+    <row r="97" spans="2:9">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
     </row>
-    <row r="91" spans="1:9">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
+    <row r="98" spans="2:9">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/terasort/data/Data_MR_Terasort_sec.xlsx
+++ b/papers/terasort/data/Data_MR_Terasort_sec.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="28560" windowHeight="17560" tabRatio="113"/>
+    <workbookView xWindow="-140" yWindow="1380" windowWidth="28800" windowHeight="16480" tabRatio="414" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Cyder" sheetId="1" r:id="rId1"/>
+    <sheet name="Num_workers_Cyder" sheetId="4" r:id="rId1"/>
+    <sheet name="Chunk_size-cyder" sheetId="2" r:id="rId2"/>
+    <sheet name="Num_Reduces_cyder" sheetId="3" r:id="rId3"/>
+    <sheet name="Cyder" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>Varying input Datasize</t>
   </si>
@@ -101,12 +104,48 @@
   <si>
     <t>Constant Input Data size(8GB),Number of workers=8, Number of Reduces=8</t>
   </si>
+  <si>
+    <t>Constant Input Data size(2GB),Number of workers=8, Number of Reduces=8</t>
+  </si>
+  <si>
+    <t>Varying Reduces</t>
+  </si>
+  <si>
+    <t>Constant Input Data size(8GB),Number of workers=8, Chunk Size=256</t>
+  </si>
+  <si>
+    <t>Constant Input Data size(2GB),Number of workers=8, Chunk Size=256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map phase Time </t>
+  </si>
+  <si>
+    <t>Reduce Phase Time</t>
+  </si>
+  <si>
+    <t>All times in seconds</t>
+  </si>
+  <si>
+    <t>Reduce Phase Times</t>
+  </si>
+  <si>
+    <t>Time to shutdown workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant Input Data size(2GB), Chunk Size=256, Nu, of reduces=8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant Input Data size(8sGB), Chunk Size=256, Nu, of reduces=8 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +224,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -205,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,8 +344,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -360,8 +416,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -415,8 +505,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="95">
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -446,6 +541,23 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
@@ -477,6 +589,23 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,526 +637,196 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time in</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Vs Num of Workers</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> each phase </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Vs Input Data</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Size</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>8 Workers, 8 Reduces, chunk size 256 mb</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> 8 reduces, chunk size 256 mb</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24117782152231"/>
-          <c:y val="0.00833333333333333"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.199591174865518"/>
+          <c:y val="0.272618985126859"/>
+          <c:w val="0.669996880106968"/>
+          <c:h val="0.547037245344332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Master create session</c:v>
+            <c:v>input Size 2GB</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Num_workers_Cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$C$5:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Num_workers_Cyder!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>813.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>499.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>515.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Chunk Phase Time </c:v>
+            <c:v>Input Size 4GB</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Num_workers_Cyder!$A$20:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$D$5:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Num_workers_Cyder!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1522.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>853.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>853.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Starting Workers Time</c:v>
+            <c:v>Input Size 8GB</c:v>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Num_workers_Cyder!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$E$5:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Num_workers_Cyder!$B$33:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3094.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1689.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Map phase Time </c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$F$5:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91.98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>448.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Prepare Input Files Time</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$G$5:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Reduce Phase Time</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$H$5:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>82.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.98</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>211.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>378.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>682.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1470.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Quitting workers Time</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cyder!$I$5:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+                  <c:v>1690.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1037,13 +836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="474116520"/>
-        <c:axId val="476791608"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="474116520"/>
+        <c:axId val="576374648"/>
+        <c:axId val="488829336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="576374648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,8 +857,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Input Size in MB</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of workers</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1072,15 +874,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476791608"/>
+        <c:crossAx val="488829336"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="476791608"/>
+        <c:axId val="488829336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,6 +902,7 @@
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:t> Seconds</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1113,9 +913,513 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474116520"/>
+        <c:crossAx val="576374648"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.782605597567631"/>
+          <c:y val="0.266043307086614"/>
+          <c:w val="0.179770640056132"/>
+          <c:h val="0.160663307086614"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to solution VS Num of Reduces</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Workers, Input Size 4Gb, Chunk size 256 mb</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cyder!$A$62:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cyder!$B$62:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2596.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1453.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>853.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>961.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1012.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540946616"/>
+        <c:axId val="540952376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540946616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of reduces</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540952376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540952376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540946616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TIme to solution Vs Chunk Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Workers, 8 Reduces, Input size 4GB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.217845113110861"/>
+          <c:y val="0.242550962379702"/>
+          <c:w val="0.634310203412074"/>
+          <c:h val="0.659548128815359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Input Size 4GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cyder!$A$35:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cyder!$B$35:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1848.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1282.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1018.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>904.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>853.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>877.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Input Size 8GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cyder!$A$51:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cyder!$B$51:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2633.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1797.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540985144"/>
+        <c:axId val="540990920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540985144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540990920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="64.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540990920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540985144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1127,16 +1431,238 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr i="1"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to solution Vs Input Data Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Workers, 8 Reduces, chunk size 256 mb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.195246025281323"/>
+          <c:y val="0.0392156862745098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 workers</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cyder!$B$5:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>853.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1936.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541020280"/>
+        <c:axId val="541026040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541020280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="541026040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541026040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="541020280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -1252,10 +1778,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1274,30 +1800,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$C$35:$C$40,Cyder!$C$51:$C$53)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+              <c:f>'Chunk_size-cyder'!$C$17:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1314,15 +1825,6 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1338,10 +1840,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1360,30 +1862,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$D$35:$D$40,Cyder!$D$51:$D$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>64.98</c:v>
                 </c:pt>
@@ -1401,18 +1888,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,10 +1902,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1449,30 +1924,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$E$35:$E$40,Cyder!$E$51:$E$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$E$17:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1490,18 +1950,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,10 +1964,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1538,30 +1986,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$F$35:$F$40,Cyder!$F$51:$F$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$F$17:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>988.2</c:v>
                 </c:pt>
@@ -1579,18 +2012,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1096.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>578.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>352.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>303.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,10 +2026,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1627,30 +2048,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$G$35:$G$40,Cyder!$G$51:$G$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>24.0</c:v>
                 </c:pt>
@@ -1668,18 +2074,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,10 +2088,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1716,30 +2110,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$H$35:$H$40,Cyder!$H$51:$H$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$H$17:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>720.0</c:v>
                 </c:pt>
@@ -1757,15 +2136,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>726.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1417.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1421.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1405.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,10 +2150,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$A$17:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>16.0</c:v>
                 </c:pt>
@@ -1802,30 +2172,15 @@
                 <c:pt idx="5">
                   <c:v>512.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Cyder!$I$35:$I$40,Cyder!$I$51:$I$55)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+              <c:f>'Chunk_size-cyder'!$I$17:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
@@ -1842,18 +2197,6 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1870,11 +2213,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="754003720"/>
-        <c:axId val="538449864"/>
+        <c:axId val="544542184"/>
+        <c:axId val="540794744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="754003720"/>
+        <c:axId val="544542184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +2250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538449864"/>
+        <c:crossAx val="540794744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +2258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538449864"/>
+        <c:axId val="540794744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +2291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754003720"/>
+        <c:crossAx val="544542184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1980,6 +2323,2100 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TIme to solution Vs Chunk Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Workers, 8 Reduces, Input size 4GB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.235702255968004"/>
+          <c:y val="0.249868062223929"/>
+          <c:w val="0.634310203412074"/>
+          <c:h val="0.659548128815359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Input Size 2GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Chunk_size-cyder'!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Chunk_size-cyder'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>559.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Input Size 4GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Chunk_size-cyder'!$A$18:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Chunk_size-cyder'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1282.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1018.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>904.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>853.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>877.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>INput Size 8GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Chunk_size-cyder'!$A$33:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Chunk_size-cyder'!$B$33:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2633.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2033.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1797.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1725.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1684.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540871192"/>
+        <c:axId val="540876968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540871192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size in MB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540876968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="64.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540876968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540871192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Input Size 2GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Num_Reduces_cyder!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Num_Reduces_cyder!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>773.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>546.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Input Size 4GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Num_Reduces_cyder!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Num_Reduces_cyder!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2596.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1454.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>853.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1012.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Input Size 8GB</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Num_Reduces_cyder!$A$32:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Num_Reduces_cyder!$B$32:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2881.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2061.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2205.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1956.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540689560"/>
+        <c:axId val="576109320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540689560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="576109320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="576109320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="540689560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> each phase </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vs Input Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>8 Workers, 8 Reduces, chunk size 256 mb</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24117782152231"/>
+          <c:y val="0.00833333333333333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Master create session</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Chunk Phase Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Starting Workers Time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$E$5:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Map phase Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$F$5:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Prepare Input Files Time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$G$5:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Reduce Phase Time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$H$5:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>82.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>682.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1470.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Quitting workers Time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cyder!$A$5:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cyder!$I$5:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="544596968"/>
+        <c:axId val="544602456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544596968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Size in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544602456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544602456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544596968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr i="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in each phase Vs Chunk Size</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Workers, 8 Reduces, Input size 4GB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Master create session</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$C$35:$C$40,Cyder!$C$51:$C$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Chunk Phase Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$D$35:$D$40,Cyder!$D$51:$D$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Starting Workers Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$E$35:$E$40,Cyder!$E$51:$E$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Map phase Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$F$35:$F$40,Cyder!$F$51:$F$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>988.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>303.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Prepare Input Files Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$G$35:$G$40,Cyder!$G$51:$G$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Reduce Phase Time </c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$H$35:$H$40,Cyder!$H$51:$H$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>717.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>711.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>705.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>682.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>726.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1421.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1405.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2348.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Quitting workers Time</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Cyder!$A$35:$A$40,Cyder!$A$51:$A$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Cyder!$I$35:$I$40,Cyder!$I$51:$I$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="544654520"/>
+        <c:axId val="544660120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544654520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size In MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544660120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544660120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="544654520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.782321093791847"/>
+          <c:y val="0.390223427953859"/>
+          <c:w val="0.204073464031282"/>
+          <c:h val="0.393782615408368"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2527,11 +4964,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="597772056"/>
-        <c:axId val="520116264"/>
+        <c:axId val="544711256"/>
+        <c:axId val="544717000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="597772056"/>
+        <c:axId val="544711256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +5002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520116264"/>
+        <c:crossAx val="544717000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,7 +5010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520116264"/>
+        <c:axId val="544717000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +5039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597772056"/>
+        <c:crossAx val="544711256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2633,7 +5070,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3086,11 +5523,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="598252456"/>
-        <c:axId val="476428664"/>
+        <c:axId val="544766968"/>
+        <c:axId val="544772712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="598252456"/>
+        <c:axId val="544766968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3124,7 +5561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476428664"/>
+        <c:crossAx val="544772712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3132,7 +5569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476428664"/>
+        <c:axId val="544772712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +5598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598252456"/>
+        <c:crossAx val="544766968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3183,7 +5620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3306,11 +5743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="754642168"/>
-        <c:axId val="553330552"/>
+        <c:axId val="540899944"/>
+        <c:axId val="540905816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="754642168"/>
+        <c:axId val="540899944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3344,12 +5781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553330552"/>
+        <c:crossAx val="540905816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="553330552"/>
+        <c:axId val="540905816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,734 +5820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754642168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Time to solution VS Num of Reduces</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>8 Workers, Input Size 4Gb, Chunk size 256 mb</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cyder!$A$62:$A$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cyder!$B$62:$B$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2596.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1453.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>853.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>961.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1012.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="83637336"/>
-        <c:axId val="83646504"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="83637336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of reduces</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83646504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83646504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time in Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83637336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>TIme to solution Vs Chunk Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>8 Workers, 8 Reduces, Input size 4GB</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.217845113110861"/>
-          <c:y val="0.242550962379702"/>
-          <c:w val="0.634310203412074"/>
-          <c:h val="0.659548128815359"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Input Size 4GB</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cyder!$A$35:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cyder!$B$35:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1848.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1282.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1018.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>904.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>853.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>877.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Input Size 8GB</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cyder!$A$51:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cyder!$B$51:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2633.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2033.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1797.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="83674456"/>
-        <c:axId val="83680216"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="83674456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Chunk</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size in MB</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83680216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="64.0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83680216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>  in Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83674456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1800" b="1" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Time to solution Vs Input Data Size</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1800" b="1" i="1" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>8 Workers, 8 Reduces, chunk size 256 mb</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.195246025281323"/>
-          <c:y val="0.0392156862745098"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>8 workers</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cyder!$A$5:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cyder!$B$5:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>222.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>306.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>481.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>853.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1936.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="597735240"/>
-        <c:axId val="476780504"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="597735240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Input</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> size in MB</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476780504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="476780504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>in seconds</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597735240"/>
+        <c:crossAx val="540899944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4131,16 +5841,157 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>863600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>558800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1231900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4164,15 +6015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4196,15 +6047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4289,16 +6140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4320,15 +6171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4350,15 +6201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4702,10 +6553,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="61" thickTop="1">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="71" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" thickBot="1">
+      <c r="A17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="61" thickTop="1">
+      <c r="A18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="71" thickBot="1">
+      <c r="A19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1522.2</v>
+      </c>
+      <c r="C20">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>60*(5/60)</f>
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>232.98</v>
+      </c>
+      <c r="G20">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1276.2</v>
+      </c>
+      <c r="I20">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>853.2</v>
+      </c>
+      <c r="C21">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>60*(3/60)</f>
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>159</v>
+      </c>
+      <c r="G21">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>682.80000000000007</v>
+      </c>
+      <c r="I21">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>853.2</v>
+      </c>
+      <c r="C23">
+        <f>60*(0.5/60)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <f>60*(4/60)</f>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f>60*(4/60)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>129</v>
+      </c>
+      <c r="G23">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>706.8</v>
+      </c>
+      <c r="I23">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" thickBot="1">
+      <c r="A30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="61" thickTop="1">
+      <c r="A31" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="71" thickBot="1">
+      <c r="A32" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3094</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="3">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1689</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="3">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1690</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="61" thickTop="1">
+      <c r="A2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>512</v>
+      </c>
+      <c r="B8">
+        <v>521</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="16" customHeight="1" thickBot="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" thickBot="1">
+      <c r="A14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="61" thickTop="1">
+      <c r="A15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="57" thickBot="1">
+      <c r="A16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1848</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C22" si="0">60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>64.98</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E22" si="1">60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>988.19999999999993</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>720</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I22" si="2">60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1282.2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>31.8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>529.98</v>
+      </c>
+      <c r="G18">
+        <f>60*(12/60)</f>
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>717</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>1018.8000000000001</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>279</v>
+      </c>
+      <c r="G19">
+        <f>60*(5/60)</f>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>711</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>128</v>
+      </c>
+      <c r="B20">
+        <v>904.2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>60*(8/60)</f>
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>175.8</v>
+      </c>
+      <c r="G20">
+        <f>60*(3/10)</f>
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>705</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>256</v>
+      </c>
+      <c r="B21">
+        <v>853.2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>60*(3/60)</f>
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>159</v>
+      </c>
+      <c r="G21">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>682.80000000000007</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>512</v>
+      </c>
+      <c r="B22">
+        <v>877.19999999999993</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>141</v>
+      </c>
+      <c r="G22">
+        <f>60*(0.5/60)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>726</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20" thickBot="1">
+      <c r="A30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="61" thickTop="1">
+      <c r="A31" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="57" thickBot="1">
+      <c r="A32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2633</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1096</v>
+      </c>
+      <c r="G33">
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <v>1417</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>2033</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>578</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>1421</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>128</v>
+      </c>
+      <c r="B35">
+        <v>1797</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="14">
+        <v>352</v>
+      </c>
+      <c r="G35" s="14">
+        <v>8</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1405</v>
+      </c>
+      <c r="I35" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>256</v>
+      </c>
+      <c r="B36">
+        <v>1725</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="14">
+        <v>303</v>
+      </c>
+      <c r="G36" s="14">
+        <v>4</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1409</v>
+      </c>
+      <c r="I36" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>512</v>
+      </c>
+      <c r="B37">
+        <v>1684</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="16">
+        <v>263</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2</v>
+      </c>
+      <c r="H37" s="14">
+        <v>1406</v>
+      </c>
+      <c r="I37" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="46" thickTop="1">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45">
+      <c r="A13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="57" thickBot="1">
+      <c r="A14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2596</v>
+      </c>
+      <c r="C15">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>60*(4/60)</f>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f>60*(3/60)</f>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>138</v>
+      </c>
+      <c r="G15">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2470.2000000000003</v>
+      </c>
+      <c r="I15">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+      <c r="C16">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>60*(4/60)</f>
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>154.98000000000002</v>
+      </c>
+      <c r="G16">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1285.2</v>
+      </c>
+      <c r="I16">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>853</v>
+      </c>
+      <c r="C17">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>60*(3/60)</f>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>159</v>
+      </c>
+      <c r="G17">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>682.80000000000007</v>
+      </c>
+      <c r="I17">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>961</v>
+      </c>
+      <c r="C19">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>60*(4/60)</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>157.97999999999999</v>
+      </c>
+      <c r="G19">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>790.2</v>
+      </c>
+      <c r="I19">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1012</v>
+      </c>
+      <c r="C21">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>60*(4/60)</f>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f>60*(3/60)</f>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>177</v>
+      </c>
+      <c r="G21">
+        <f>60*(1/60)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>820.2</v>
+      </c>
+      <c r="I21">
+        <f>60*(2/60)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="57" thickBot="1">
+      <c r="A31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5386,6 +8653,9 @@
       <c r="A54">
         <v>256</v>
       </c>
+      <c r="B54">
+        <v>2676</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -5400,6 +8670,9 @@
       </c>
       <c r="G54" s="14">
         <v>4</v>
+      </c>
+      <c r="H54" s="14">
+        <v>2348</v>
       </c>
       <c r="I54" s="14">
         <v>2</v>
@@ -5424,11 +8697,14 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="20" thickBot="1">
+      <c r="A59" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="60">
+    <row r="60" spans="1:9" ht="61" thickTop="1">
       <c r="A60" s="17" t="s">
         <v>21</v>
       </c>
@@ -5821,6 +9097,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/papers/terasort/data/Data_MR_Terasort_sec.xlsx
+++ b/papers/terasort/data/Data_MR_Terasort_sec.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="28800" windowHeight="16480" tabRatio="382"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="441" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chunk_size_cyder" sheetId="2" r:id="rId1"/>
     <sheet name="Num_workers_cyder" sheetId="4" r:id="rId2"/>
     <sheet name="Num_Reduces_cyder" sheetId="3" r:id="rId3"/>
-    <sheet name="Cyder" sheetId="1" r:id="rId4"/>
+    <sheet name="Input Size" sheetId="5" r:id="rId4"/>
+    <sheet name="Cyder" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="38">
   <si>
     <t>Varying input Datasize</t>
   </si>
@@ -45,19 +46,7 @@
     <t>Total Time (minutes)</t>
   </si>
   <si>
-    <t>Master  Time to create sesion in advert</t>
-  </si>
-  <si>
-    <t>Chunk phase</t>
-  </si>
-  <si>
-    <t>Time to Start workers)</t>
-  </si>
-  <si>
     <t>Map phase Time (minutes)</t>
-  </si>
-  <si>
-    <t>Prepare input files for reducer</t>
   </si>
   <si>
     <t>Reduce Phase Time(minutes)</t>
@@ -120,25 +109,34 @@
     <t xml:space="preserve">Total Time </t>
   </si>
   <si>
-    <t xml:space="preserve">Map phase Time </t>
-  </si>
-  <si>
     <t>Reduce Phase Time</t>
   </si>
   <si>
     <t>All times in seconds</t>
   </si>
   <si>
-    <t>Reduce Phase Times</t>
-  </si>
-  <si>
-    <t>Time to shutdown workers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constant Input Data size(2GB), Chunk Size=256, Nu, of reduces=8 </t>
   </si>
   <si>
     <t xml:space="preserve">Constant Input Data size(8sGB), Chunk Size=256, Nu, of reduces=8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chunk phase </t>
+  </si>
+  <si>
+    <t>Create  advert session</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Start workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map phase </t>
+  </si>
+  <si>
+    <t>Preparing input files for reduce phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shutdown workers</t>
   </si>
 </sst>
 </file>
@@ -354,12 +352,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -533,7 +539,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="125">
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -591,6 +597,10 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
@@ -650,6 +660,10 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1151,11 +1165,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="539746408"/>
-        <c:axId val="539752008"/>
+        <c:axId val="527856568"/>
+        <c:axId val="465803560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539746408"/>
+        <c:axId val="527856568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539752008"/>
+        <c:crossAx val="465803560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1192,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539752008"/>
+        <c:axId val="465803560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539746408"/>
+        <c:crossAx val="527856568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1266,6 +1280,44 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Num of Reduces</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Wokers, Input size 2GB, Chunk size 256 MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -1273,10 +1325,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0545595600376643"/>
-          <c:y val="0.0585197934595525"/>
-          <c:w val="0.568779595791427"/>
-          <c:h val="0.867997885806443"/>
+          <c:x val="0.144680877195377"/>
+          <c:y val="0.216867469879518"/>
+          <c:w val="0.525452039465604"/>
+          <c:h val="0.637361052759971"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1292,7 +1344,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
+                  <c:v>Create  advert session</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1356,7 +1408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
+                  <c:v>Chunk phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1420,7 +1472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
+                  <c:v> Start workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1484,7 +1536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map phase Time </c:v>
+                  <c:v>Map phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1548,7 +1600,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
+                  <c:v>Preparing input files for reduce phase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1676,7 +1728,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
+                  <c:v> Shutdown workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1741,21 +1793,45 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="792236216"/>
-        <c:axId val="706438584"/>
+        <c:axId val="492418056"/>
+        <c:axId val="539845048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="792236216"/>
+        <c:axId val="492418056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Reduces</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706438584"/>
+        <c:crossAx val="539845048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1763,25 +1839,61 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="706438584"/>
+        <c:axId val="539845048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="792236216"/>
+        <c:crossAx val="492418056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.659734303142783"/>
+          <c:y val="0.351324488053451"/>
+          <c:w val="0.267475402229834"/>
+          <c:h val="0.539003076422676"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1810,6 +1922,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Num of Reduces</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Wokers, Input size 4GB, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chunk size 256 MB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.196767110841914"/>
+          <c:y val="0.0268006700167504"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1826,7 +1993,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
+                  <c:v>Create  advert session</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1899,7 +2066,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
+                  <c:v>Chunk phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1972,7 +2139,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
+                  <c:v> Start workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2045,7 +2212,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map phase Time (minutes)</c:v>
+                  <c:v>Map phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2118,7 +2285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
+                  <c:v>Preparing input files for reduce phase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2191,7 +2358,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reduce Phase Time(minutes)</c:v>
+                  <c:v>Reduce Phase Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2264,7 +2431,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
+                  <c:v> Shutdown workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2338,21 +2505,45 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="511745320"/>
-        <c:axId val="576557864"/>
+        <c:axId val="492175256"/>
+        <c:axId val="492108184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="511745320"/>
+        <c:axId val="492175256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Reduces</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576557864"/>
+        <c:crossAx val="492108184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2360,18 +2551,45 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="576557864"/>
+        <c:axId val="492108184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme in</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511745320"/>
+        <c:crossAx val="492175256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2407,6 +2625,44 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Num of Reduces</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Wokers, Input size 8GB, Chunk size 256 MB </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2423,7 +2679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
+                  <c:v>Create  advert session</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2487,7 +2743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
+                  <c:v>Chunk phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2551,7 +2807,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
+                  <c:v> Start workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2615,7 +2871,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map phase Time (minutes)</c:v>
+                  <c:v>Map phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2679,7 +2935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
+                  <c:v>Preparing input files for reduce phase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2743,7 +2999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reduce Phase Time(minutes)</c:v>
+                  <c:v>Reduce Phase Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2807,7 +3063,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
+                  <c:v> Shutdown workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2872,21 +3128,45 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="576387624"/>
-        <c:axId val="790739656"/>
+        <c:axId val="543363064"/>
+        <c:axId val="475307448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="576387624"/>
+        <c:axId val="543363064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Reduces</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="790739656"/>
+        <c:crossAx val="475307448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2894,18 +3174,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="790739656"/>
+        <c:axId val="475307448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576387624"/>
+        <c:crossAx val="543363064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3482,11 +3793,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="539909288"/>
-        <c:axId val="539914776"/>
+        <c:axId val="471740520"/>
+        <c:axId val="527756408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539909288"/>
+        <c:axId val="471740520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,13 +3819,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539914776"/>
+        <c:crossAx val="527756408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539914776"/>
+        <c:axId val="527756408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,19 +3860,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539909288"/>
+        <c:crossAx val="471740520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3673,6 +3987,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4312,11 +4627,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="539968312"/>
-        <c:axId val="539973912"/>
+        <c:axId val="492012536"/>
+        <c:axId val="492153272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539968312"/>
+        <c:axId val="492012536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,13 +4657,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539973912"/>
+        <c:crossAx val="492153272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4356,7 +4672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539973912"/>
+        <c:axId val="492153272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,13 +4698,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539968312"/>
+        <c:crossAx val="492012536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4967,11 +5284,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="562062072"/>
-        <c:axId val="562067816"/>
+        <c:axId val="539083464"/>
+        <c:axId val="539641576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="562062072"/>
+        <c:axId val="539083464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,7 +5321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562067816"/>
+        <c:crossAx val="539641576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5012,7 +5329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562067816"/>
+        <c:axId val="539641576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5040,7 +5357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562062072"/>
+        <c:crossAx val="539083464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5523,11 +5840,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="562117800"/>
-        <c:axId val="562123544"/>
+        <c:axId val="562271688"/>
+        <c:axId val="466237672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="562117800"/>
+        <c:axId val="562271688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562123544"/>
+        <c:crossAx val="466237672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5568,7 +5885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562123544"/>
+        <c:axId val="466237672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +5913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562117800"/>
+        <c:crossAx val="562271688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5739,11 +6056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562150040"/>
-        <c:axId val="562155800"/>
+        <c:axId val="528456872"/>
+        <c:axId val="471420392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562150040"/>
+        <c:axId val="528456872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,12 +6093,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562155800"/>
+        <c:crossAx val="471420392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562155800"/>
+        <c:axId val="471420392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5814,7 +6131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562150040"/>
+        <c:crossAx val="528456872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5955,11 +6272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562184680"/>
-        <c:axId val="562190440"/>
+        <c:axId val="483163144"/>
+        <c:axId val="491951912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562184680"/>
+        <c:axId val="483163144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5992,12 +6309,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562190440"/>
+        <c:crossAx val="491951912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562190440"/>
+        <c:axId val="491951912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6025,7 +6342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562184680"/>
+        <c:crossAx val="483163144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6091,6 +6408,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6223,11 +6541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562223272"/>
-        <c:axId val="562229016"/>
+        <c:axId val="562463624"/>
+        <c:axId val="528180968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562223272"/>
+        <c:axId val="562463624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,19 +6572,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562229016"/>
+        <c:crossAx val="528180968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="64.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562229016"/>
+        <c:axId val="528180968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6292,19 +6611,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562223272"/>
+        <c:crossAx val="562463624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6368,7 +6689,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.287099737532808"/>
+          <c:y val="0.0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6563,11 +6891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="539785384"/>
-        <c:axId val="539791160"/>
+        <c:axId val="562183064"/>
+        <c:axId val="511812104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="539785384"/>
+        <c:axId val="562183064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6601,13 +6929,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539791160"/>
+        <c:crossAx val="511812104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="64.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539791160"/>
+        <c:axId val="511812104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6640,7 +6968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539785384"/>
+        <c:crossAx val="562183064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6800,11 +7128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562257448"/>
-        <c:axId val="562263256"/>
+        <c:axId val="528351032"/>
+        <c:axId val="466517208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562257448"/>
+        <c:axId val="528351032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6831,18 +7159,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562263256"/>
+        <c:crossAx val="466517208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562263256"/>
+        <c:axId val="466517208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6869,13 +7198,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562257448"/>
+        <c:crossAx val="528351032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6906,9 +7236,57 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Chunk Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Workers, 8 Reduces, Input size 8GB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.228582395950506"/>
+          <c:y val="0.159935817739382"/>
+          <c:w val="0.531239032620922"/>
+          <c:h val="0.729073288915809"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -6922,7 +7300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
+                  <c:v>Create  advert session</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6986,7 +7364,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
+                  <c:v>Chunk phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7050,7 +7428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
+                  <c:v> Start workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7114,7 +7492,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map phase Time (minutes)</c:v>
+                  <c:v>Map phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7178,7 +7556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
+                  <c:v>Preparing input files for reduce phase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7242,7 +7620,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reduce Phase Time(minutes)</c:v>
+                  <c:v>Reduce Phase Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7306,7 +7684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
+                  <c:v> Shutdown workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7371,21 +7749,44 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="706710536"/>
-        <c:axId val="706111448"/>
+        <c:axId val="512031224"/>
+        <c:axId val="492421864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="706710536"/>
+        <c:axId val="512031224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706111448"/>
+        <c:crossAx val="492421864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7393,17 +7794,40 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="706111448"/>
+        <c:axId val="492421864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="706710536"/>
+        <c:crossAx val="512031224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7416,7 +7840,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.718650731158605"/>
+          <c:y val="0.336127386910644"/>
+          <c:w val="0.279563554555681"/>
+          <c:h val="0.391044210572427"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7499,7 +7932,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
+                  <c:v>Create  advert session</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7563,7 +7996,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
+                  <c:v>Chunk phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7627,7 +8060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
+                  <c:v> Start workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7691,7 +8124,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Map phase Time </c:v>
+                  <c:v>Map phase </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7755,7 +8188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
+                  <c:v>Preparing input files for reduce phase</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7819,7 +8252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reduce Phase Times</c:v>
+                  <c:v>Reduce Phase Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7883,7 +8316,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time to shutdown workers</c:v>
+                  <c:v> Shutdown workers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7948,11 +8381,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="608960680"/>
-        <c:axId val="792359000"/>
+        <c:axId val="512425384"/>
+        <c:axId val="512471112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="608960680"/>
+        <c:axId val="512425384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7986,7 +8419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="792359000"/>
+        <c:crossAx val="512471112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7994,7 +8427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="792359000"/>
+        <c:axId val="512471112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8027,7 +8460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608960680"/>
+        <c:crossAx val="512425384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8050,6 +8483,1718 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Num of Workers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Reduces, Input size 2GB, Chunk Size 256MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.308549317270161"/>
+          <c:y val="0.0246153846153846"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Create  advert session</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chunk phase </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Start workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map phase </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preparing input files for reduce phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reduce Phase Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>675.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Shutdown workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="483006360"/>
+        <c:axId val="492468808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483006360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of workers</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="492468808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492468808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="483006360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.691675828257317"/>
+          <c:y val="0.364679339325009"/>
+          <c:w val="0.294602044813009"/>
+          <c:h val="0.47333465892521"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Num of Workers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Reduces, Input size 4GB, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Chunk Size 256 MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.266142679330032"/>
+          <c:y val="0.0449826989619377"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.146083556565739"/>
+          <c:y val="0.213840830449827"/>
+          <c:w val="0.520319560570393"/>
+          <c:h val="0.618869847151459"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Create  advert session</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chunk phase </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$D$19:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Start workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$E$19:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map phase </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$F$19:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>232.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preparing input files for reduce phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$G$19:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reduce Phase Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$H$19:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1276.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>682.8000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>703.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>706.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Shutdown workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$I$19:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="483256664"/>
+        <c:axId val="576685208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483256664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num of Workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="576685208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="576685208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="483256664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time in each phase Vs Num of Workers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8 Reduces, Input size 8GB, Chunk Size 256 MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Create  advert session</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chunk phase </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$D$32:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Start workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$E$32:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map phase </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$F$32:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preparing input files for reduce phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$G$32:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$H$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reduce Phase Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$H$32:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2585.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1415.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1439.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Num_workers_cyder!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Shutdown workers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Num_workers_cyder!$I$32:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="527686792"/>
+        <c:axId val="512732456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527686792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> o Workers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="512732456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512732456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527686792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8281,11 +10426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="539629160"/>
-        <c:axId val="539636056"/>
+        <c:axId val="469924424"/>
+        <c:axId val="527597128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="539629160"/>
+        <c:axId val="469924424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8319,12 +10464,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539636056"/>
+        <c:crossAx val="527597128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539636056"/>
+        <c:axId val="527597128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8358,7 +10503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539629160"/>
+        <c:crossAx val="469924424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8389,1334 +10534,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$D$4:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$E$4:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map phase Time </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$F$4:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$G$4:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reduce Phase Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$H$4:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>675.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>379.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>404.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$4:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$I$4:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="475693752"/>
-        <c:axId val="475202184"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="475693752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475202184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="475202184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475693752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$C$19:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$D$19:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$E$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$E$19:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map phase Time </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$F$19:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>232.98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>129.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$G$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$G$19:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$H$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reduce Phase Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$H$19:$H$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1276.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>682.8000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>703.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>706.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$I$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$A$19:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$I$19:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="758602808"/>
-        <c:axId val="760121496"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="758602808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="760121496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="760121496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="758602808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$C$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Master  Time to create sesion in advert(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$C$32:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$D$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chunk phase(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$D$32:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$E$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to Start workers(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$E$32:$E$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$F$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Map phase Time </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$F$32:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>482.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>297.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$G$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prepare input files for reducers</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$G$32:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$H$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reduce Phase Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$H$32:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2585.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1646.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1415.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1439.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Num_workers_cyder!$I$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to shutdown workers(sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Num_workers_cyder!$I$32:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="478153912"/>
-        <c:axId val="647285272"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="478153912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="647285272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="647285272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478153912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -9731,6 +10548,39 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Num of Reduces</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>8 workers, chunk size 256MB</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -9738,10 +10588,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0876367016622922"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.575393482064742"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="0.144275518312504"/>
+          <c:y val="0.210925847312564"/>
+          <c:w val="0.725348118182475"/>
+          <c:h val="0.634643204382061"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9935,36 +10785,90 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="539835928"/>
-        <c:axId val="539838920"/>
+        <c:axId val="482835544"/>
+        <c:axId val="492157992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="539835928"/>
+        <c:axId val="482835544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Num of Reduces</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539838920"/>
+        <c:crossAx val="492157992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539838920"/>
+        <c:axId val="492157992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0160057108246085"/>
+              <c:y val="0.432595138651147"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539835928"/>
+        <c:crossAx val="482835544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10022,16 +10926,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10055,15 +10959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>654050</xdr:rowOff>
+      <xdr:rowOff>679450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10085,15 +10989,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>654050</xdr:rowOff>
+      <xdr:rowOff>463550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10119,23 +11023,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10152,19 +11054,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>393700</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>482600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10182,19 +11084,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>482600</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10211,21 +11113,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10247,15 +11151,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10277,15 +11181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10307,13 +11211,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -10337,15 +11241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10944,8 +11848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10959,45 +11863,45 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="61" thickTop="1">
       <c r="A2" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="57" thickBot="1">
+    <row r="3" spans="1:9" ht="43" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="12" t="s">
         <v>36</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11161,45 +12065,45 @@
     </row>
     <row r="14" spans="1:9" ht="20" thickBot="1">
       <c r="A14" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="61" thickTop="1">
       <c r="A15" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:9" ht="57" thickBot="1">
+    <row r="16" spans="1:9" ht="43" thickBot="1">
       <c r="A16" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>13</v>
+      <c r="C16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11404,45 +12308,45 @@
     </row>
     <row r="30" spans="1:9" ht="20" thickBot="1">
       <c r="A30" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:9" ht="61" thickTop="1">
       <c r="A31" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:9" ht="57" thickBot="1">
+    <row r="32" spans="1:9" ht="43" thickBot="1">
       <c r="A32" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>13</v>
+      <c r="C32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -11592,7 +12496,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11606,58 +12509,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:I35"/>
+    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="61" thickTop="1">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="57" thickBot="1">
+    <row r="3" spans="1:9" ht="29" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>13</v>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11778,45 +12682,45 @@
     </row>
     <row r="16" spans="1:9" ht="20" thickBot="1">
       <c r="A16" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="61" thickTop="1">
       <c r="A17" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:9" ht="57" thickBot="1">
+    <row r="18" spans="1:9" ht="29" thickBot="1">
       <c r="A18" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>13</v>
+      <c r="E18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11952,7 +12856,7 @@
     </row>
     <row r="29" spans="1:9" ht="20" thickBot="1">
       <c r="A29" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -11965,7 +12869,7 @@
     </row>
     <row r="30" spans="1:9" ht="61" thickTop="1">
       <c r="A30" s="24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -11976,33 +12880,33 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="57" thickBot="1">
+    <row r="31" spans="1:9" ht="29" thickBot="1">
       <c r="A31" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -12213,60 +13117,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:I47"/>
+    <sheetView topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20" thickBot="1">
       <c r="A1" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="46" thickTop="1">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="57" thickBot="1">
+    <row r="3" spans="1:9" ht="29" thickBot="1">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>13</v>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12416,38 +13321,38 @@
     </row>
     <row r="13" spans="1:9" ht="45">
       <c r="A13" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="57" thickBot="1">
+    <row r="14" spans="1:9" ht="29" thickBot="1">
       <c r="A14" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12680,38 +13585,38 @@
     </row>
     <row r="41" spans="1:9" ht="45">
       <c r="A41" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:9" ht="57" thickBot="1">
+    <row r="42" spans="1:9" ht="29" thickBot="1">
       <c r="A42" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -12861,7 +13766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12873,10 +13777,313 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" thickTop="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="43" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" thickTop="1">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5" s="3">
+        <v>126</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>82.02</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>256</v>
+      </c>
+      <c r="B6" s="3">
+        <v>171</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>103.98</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>512</v>
+      </c>
+      <c r="B7" s="3">
+        <v>222</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>64.98</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>150</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1024</v>
+      </c>
+      <c r="B8" s="3">
+        <v>306</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>81</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>211.98</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>2048</v>
+      </c>
+      <c r="B9" s="3">
+        <v>481.02</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>91.98</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>378</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>4096</v>
+      </c>
+      <c r="B10" s="3">
+        <v>853.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>159</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>682.8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8192</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1936.8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>448.98</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1470</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+      <selection activeCell="C4" sqref="C4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12928,7 +14135,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="71" thickBot="1">
+    <row r="4" spans="1:9" ht="57" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -12936,25 +14143,25 @@
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" thickTop="1">
@@ -13165,45 +14372,45 @@
     </row>
     <row r="32" spans="1:7" ht="20" thickBot="1">
       <c r="A32" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:9" ht="61" thickTop="1">
       <c r="A33" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:9" ht="71" thickBot="1">
       <c r="A34" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -13425,45 +14632,45 @@
     </row>
     <row r="48" spans="1:9" ht="20" thickBot="1">
       <c r="A48" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:9" ht="61" thickTop="1">
       <c r="A49" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:9" ht="71" thickBot="1">
       <c r="A50" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -13603,45 +14810,45 @@
     </row>
     <row r="59" spans="1:9" ht="20" thickBot="1">
       <c r="A59" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="61" thickTop="1">
       <c r="A60" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="71" thickBot="1">
       <c r="A61" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -13821,45 +15028,45 @@
     </row>
     <row r="84" spans="1:9" ht="20" thickBot="1">
       <c r="A84" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
     <row r="85" spans="1:9" ht="61" thickTop="1">
       <c r="A85" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
     </row>
     <row r="86" spans="1:9" ht="71" thickBot="1">
       <c r="A86" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:9">

--- a/papers/terasort/data/Data_MR_Terasort_sec.xlsx
+++ b/papers/terasort/data/Data_MR_Terasort_sec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="441" activeTab="1"/>
+    <workbookView xWindow="3800" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="441" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Chunk_size_cyder" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>Varying input Datasize</t>
   </si>
@@ -137,6 +137,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Shutdown workers</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
+  <si>
+    <t>chunk</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>num Splits</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>1??</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>15ms</t>
+  </si>
+  <si>
+    <t>43ms</t>
+  </si>
+  <si>
+    <t>1 by one 1 in map pahse</t>
   </si>
 </sst>
 </file>
@@ -711,7 +750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1165,11 +1203,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="527856568"/>
-        <c:axId val="465803560"/>
+        <c:axId val="458120776"/>
+        <c:axId val="458127464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="527856568"/>
+        <c:axId val="458120776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,14 +1229,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465803560"/>
+        <c:crossAx val="458127464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465803560"/>
+        <c:axId val="458127464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,14 +1265,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527856568"/>
+        <c:crossAx val="458120776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1351,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1793,11 +1828,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="492418056"/>
-        <c:axId val="539845048"/>
+        <c:axId val="480585384"/>
+        <c:axId val="480591032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492418056"/>
+        <c:axId val="480585384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,14 +1859,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539845048"/>
+        <c:crossAx val="480591032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1839,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539845048"/>
+        <c:axId val="480591032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,14 +1904,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492418056"/>
+        <c:crossAx val="480585384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2505,11 +2538,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="492175256"/>
-        <c:axId val="492108184"/>
+        <c:axId val="480645496"/>
+        <c:axId val="480651160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492175256"/>
+        <c:axId val="480645496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,14 +2569,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492108184"/>
+        <c:crossAx val="480651160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2551,7 +2583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492108184"/>
+        <c:axId val="480651160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,21 +2614,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492175256"/>
+        <c:crossAx val="480645496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2660,7 +2690,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3128,11 +3157,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="543363064"/>
-        <c:axId val="475307448"/>
+        <c:axId val="480703272"/>
+        <c:axId val="480708920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543363064"/>
+        <c:axId val="480703272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,14 +3188,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475307448"/>
+        <c:crossAx val="480708920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3174,7 +3202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475307448"/>
+        <c:axId val="480708920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,21 +3237,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543363064"/>
+        <c:crossAx val="480703272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3793,11 +3819,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="471740520"/>
-        <c:axId val="527756408"/>
+        <c:axId val="480784504"/>
+        <c:axId val="480789992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471740520"/>
+        <c:axId val="480784504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527756408"/>
+        <c:crossAx val="480789992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3834,7 +3860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527756408"/>
+        <c:axId val="480789992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3867,7 +3893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471740520"/>
+        <c:crossAx val="480784504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4627,11 +4653,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="492012536"/>
-        <c:axId val="492153272"/>
+        <c:axId val="480844280"/>
+        <c:axId val="480849880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492012536"/>
+        <c:axId val="480844280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492153272"/>
+        <c:crossAx val="480849880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4672,7 +4698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492153272"/>
+        <c:axId val="480849880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492012536"/>
+        <c:crossAx val="480844280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5284,11 +5310,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="539083464"/>
-        <c:axId val="539641576"/>
+        <c:axId val="480901368"/>
+        <c:axId val="480907112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="539083464"/>
+        <c:axId val="480901368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,13 +5341,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539641576"/>
+        <c:crossAx val="480907112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5329,7 +5356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539641576"/>
+        <c:axId val="480907112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,13 +5378,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539083464"/>
+        <c:crossAx val="480901368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5513,6 +5541,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5840,11 +5869,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="562271688"/>
-        <c:axId val="466237672"/>
+        <c:axId val="480956776"/>
+        <c:axId val="480962520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="562271688"/>
+        <c:axId val="480956776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5871,13 +5900,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466237672"/>
+        <c:crossAx val="480962520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5885,7 +5915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466237672"/>
+        <c:axId val="480962520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,19 +5937,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562271688"/>
+        <c:crossAx val="480956776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5989,6 +6021,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6056,11 +6089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="528456872"/>
-        <c:axId val="471420392"/>
+        <c:axId val="480989048"/>
+        <c:axId val="480994808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="528456872"/>
+        <c:axId val="480989048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6087,18 +6120,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471420392"/>
+        <c:crossAx val="480994808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471420392"/>
+        <c:axId val="480994808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6125,13 +6159,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528456872"/>
+        <c:crossAx val="480989048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6203,6 +6238,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6272,11 +6308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483163144"/>
-        <c:axId val="491951912"/>
+        <c:axId val="481023240"/>
+        <c:axId val="481029000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483163144"/>
+        <c:axId val="481023240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6303,18 +6339,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491951912"/>
+        <c:crossAx val="481029000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491951912"/>
+        <c:axId val="481029000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,13 +6373,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483163144"/>
+        <c:crossAx val="481023240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6541,11 +6579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562463624"/>
-        <c:axId val="528180968"/>
+        <c:axId val="481062392"/>
+        <c:axId val="481068136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562463624"/>
+        <c:axId val="481062392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6579,13 +6617,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528180968"/>
+        <c:crossAx val="481068136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="64.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528180968"/>
+        <c:axId val="481068136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,7 +6656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562463624"/>
+        <c:crossAx val="481062392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6891,11 +6929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562183064"/>
-        <c:axId val="511812104"/>
+        <c:axId val="458198392"/>
+        <c:axId val="458204168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562183064"/>
+        <c:axId val="458198392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6922,20 +6960,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511812104"/>
+        <c:crossAx val="458204168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="64.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511812104"/>
+        <c:axId val="458204168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6961,21 +6998,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562183064"/>
+        <c:crossAx val="458198392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7128,11 +7163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="528351032"/>
-        <c:axId val="466517208"/>
+        <c:axId val="481097640"/>
+        <c:axId val="481103448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="528351032"/>
+        <c:axId val="481097640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7166,12 +7201,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466517208"/>
+        <c:crossAx val="481103448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466517208"/>
+        <c:axId val="481103448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7205,7 +7240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528351032"/>
+        <c:crossAx val="481097640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7271,7 +7306,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7749,11 +7783,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="512031224"/>
-        <c:axId val="492421864"/>
+        <c:axId val="480297528"/>
+        <c:axId val="480303048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="512031224"/>
+        <c:axId val="480297528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7779,14 +7813,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492421864"/>
+        <c:crossAx val="480303048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7794,7 +7827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492421864"/>
+        <c:axId val="480303048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7820,14 +7853,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="512031224"/>
+        <c:crossAx val="480297528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7913,7 +7945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8381,11 +8412,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="512425384"/>
-        <c:axId val="512471112"/>
+        <c:axId val="480354488"/>
+        <c:axId val="480360136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="512425384"/>
+        <c:axId val="480354488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8412,14 +8443,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="512471112"/>
+        <c:crossAx val="480360136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8427,7 +8457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512471112"/>
+        <c:axId val="480360136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8453,21 +8483,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="512425384"/>
+        <c:crossAx val="480354488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8964,11 +8992,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="483006360"/>
-        <c:axId val="492468808"/>
+        <c:axId val="480424152"/>
+        <c:axId val="480429816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="483006360"/>
+        <c:axId val="480424152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9002,7 +9030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492468808"/>
+        <c:crossAx val="480429816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9010,7 +9038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492468808"/>
+        <c:axId val="480429816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9052,7 +9080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483006360"/>
+        <c:crossAx val="480424152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9650,11 +9678,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="483256664"/>
-        <c:axId val="576685208"/>
+        <c:axId val="461578488"/>
+        <c:axId val="461583896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="483256664"/>
+        <c:axId val="461578488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9683,7 +9711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576685208"/>
+        <c:crossAx val="461583896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9691,7 +9719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="576685208"/>
+        <c:axId val="461583896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9729,7 +9757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483256664"/>
+        <c:crossAx val="461578488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10079,11 +10107,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="527686792"/>
-        <c:axId val="512732456"/>
+        <c:axId val="461646856"/>
+        <c:axId val="461652456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="527686792"/>
+        <c:axId val="461646856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10115,7 +10143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="512732456"/>
+        <c:crossAx val="461652456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10123,7 +10151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512732456"/>
+        <c:axId val="461652456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10166,7 +10194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527686792"/>
+        <c:crossAx val="461646856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10426,11 +10454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469924424"/>
-        <c:axId val="527597128"/>
+        <c:axId val="480447768"/>
+        <c:axId val="480386856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469924424"/>
+        <c:axId val="480447768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10464,12 +10492,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527597128"/>
+        <c:crossAx val="480386856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527597128"/>
+        <c:axId val="480386856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10503,7 +10531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469924424"/>
+        <c:crossAx val="480447768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10578,7 +10606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10785,11 +10812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="482835544"/>
-        <c:axId val="492157992"/>
+        <c:axId val="480520376"/>
+        <c:axId val="480525896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="482835544"/>
+        <c:axId val="480520376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10811,19 +10838,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492157992"/>
+        <c:crossAx val="480525896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492157992"/>
+        <c:axId val="480525896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10868,14 +10894,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482835544"/>
+        <c:crossAx val="480520376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12509,7 +12534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J9" workbookViewId="0">
+    <sheetView topLeftCell="J12" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -14080,10 +14105,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15206,6 +15231,123 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>256</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117">
+        <v>14</v>
+      </c>
+      <c r="D117">
+        <v>13</v>
+      </c>
+      <c r="E117">
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>512</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118">
+        <v>27</v>
+      </c>
+      <c r="D118">
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <v>136</v>
+      </c>
+      <c r="F118">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>1024</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119">
+        <v>119</v>
+      </c>
+      <c r="D119">
+        <v>341</v>
+      </c>
+      <c r="E119">
+        <v>466</v>
+      </c>
+      <c r="F119">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
